--- a/팀플 자리 예시.xlsx
+++ b/팀플 자리 예시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\dev\메모장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61A02A3-97C1-4049-B7D3-2DA60CE780C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144102D-890A-4D07-B24F-4EB398F6F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C664097-6111-462D-9AA6-5AE66CE54D70}"/>
   </bookViews>
@@ -37,34 +37,34 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>`</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>지*영</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용중</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(0782)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1칸 - 6~8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>수리중</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,23 +76,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -113,8 +96,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,62 +114,40 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,18 +459,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -509,7 +496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -548,11 +538,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,80 +559,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="메모" xfId="3" builtinId="10"/>
-    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - 강조색6" xfId="4" builtinId="50"/>
+    <cellStyle name="40% - 강조색3" xfId="3" builtinId="39"/>
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -949,7 +937,7 @@
   <dimension ref="B1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -959,382 +947,330 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="16">
+      <c r="D3" s="4"/>
+      <c r="E3" s="22">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="28">
+      <c r="F3" s="22"/>
+      <c r="H3" s="35">
         <v>2</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="22">
+      <c r="I3" s="36"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="31">
         <v>5</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="34" t="s">
+      <c r="N3" s="32"/>
+      <c r="P3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D4" s="5"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="24" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="6"/>
+      <c r="N4" s="30"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="5"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="24" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="6"/>
+      <c r="N5" s="30"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="5"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="26" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="6"/>
+      <c r="N6" s="34"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="2:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="16">
         <v>3</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="16">
         <v>4</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="18"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="20"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="6"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="2:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="5"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="10" t="s">
+      <c r="F15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="6"/>
+      <c r="N15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D17" s="5"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="4:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="5"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="4:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="6"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="4:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="5"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D22" s="5"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="6"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="4:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="4:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="4:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1349,7 +1285,7 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
